--- a/小阴茎-尿道下裂.xlsx
+++ b/小阴茎-尿道下裂.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12405"/>
+    <workbookView windowWidth="28800" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>基因</t>
   </si>
@@ -203,6 +203,36 @@
   </si>
   <si>
     <t>EPG5</t>
+  </si>
+  <si>
+    <t>CHD7</t>
+  </si>
+  <si>
+    <t>SEMA3E</t>
+  </si>
+  <si>
+    <t>WNT7A</t>
+  </si>
+  <si>
+    <t>KAT6B</t>
+  </si>
+  <si>
+    <t>EIF2S3</t>
+  </si>
+  <si>
+    <t>UBE2A</t>
+  </si>
+  <si>
+    <t>MKKS</t>
+  </si>
+  <si>
+    <t>FAM111A</t>
+  </si>
+  <si>
+    <t>TTC8</t>
+  </si>
+  <si>
+    <t>KLF1</t>
   </si>
 </sst>
 </file>
@@ -211,11 +241,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -231,9 +261,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,15 +366,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,104 +410,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -373,13 +417,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -390,19 +427,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,31 +523,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,127 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,15 +618,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -604,30 +632,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,8 +654,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,157 +685,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -839,6 +876,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1158,10 +1198,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A93"/>
+  <dimension ref="A1:A105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1485,34 +1525,54 @@
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64"/>
+      <c r="A64" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65"/>
+      <c r="A65" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66"/>
+      <c r="A66" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67"/>
+      <c r="A67" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68"/>
+      <c r="A68" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69"/>
+      <c r="A69" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70"/>
+      <c r="A70" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71"/>
+      <c r="A71" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72"/>
+      <c r="A72" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73"/>
+      <c r="A73" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74"/>
@@ -1573,6 +1633,42 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
